--- a/gnc/PPE_thruster_table.xlsx
+++ b/gnc/PPE_thruster_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendallmares/ppe_sim/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendallmares/ppe_sim/gnc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E234A8DE-518F-2246-81EF-7FE6371B1175}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A41F52C-8C95-6841-8B2C-6DF524ECA6CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14200" xr2:uid="{F024E5A8-950B-2946-8B93-A65053EEF164}"/>
   </bookViews>
@@ -381,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
@@ -392,7 +392,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -729,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44654E11-FEE8-3547-BD65-FD2472BEC930}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,16 +740,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -783,104 +782,104 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>-0.5</v>
       </c>
-      <c r="C4" s="11">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="C4" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="E4" s="18">
         <v>-1</v>
       </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12">
-        <v>5</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>0.5</v>
       </c>
-      <c r="C6" s="11">
-        <v>3</v>
-      </c>
-      <c r="D6" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="E6" s="18">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="C6" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="D7" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>20</v>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -888,26 +887,26 @@
         <f>A7+1</f>
         <v>5</v>
       </c>
-      <c r="B8" s="15">
-        <v>-3</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="14">
+        <v>-1.82</v>
+      </c>
+      <c r="C8" s="10">
         <v>-0.5</v>
       </c>
-      <c r="D8" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="D8" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
         <v>-1</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -915,26 +914,26 @@
         <f t="shared" ref="A9:A35" si="0">A8+1</f>
         <v>6</v>
       </c>
-      <c r="B9" s="13">
-        <v>-3</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>5</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="B9" s="12">
+        <v>-1.82</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
         <v>1</v>
       </c>
       <c r="H9" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -942,26 +941,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="13">
-        <v>-3</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="12">
+        <v>-1.82</v>
+      </c>
+      <c r="C10" s="12">
         <v>0.5</v>
       </c>
-      <c r="D10" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="D10" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -969,26 +968,26 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="16">
-        <v>-3.5</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="B11" s="15">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="E11" s="19">
         <v>-1</v>
       </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>20</v>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -996,26 +995,26 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>-0.5</v>
       </c>
-      <c r="C12" s="11">
-        <v>-3</v>
-      </c>
-      <c r="D12" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="E12" s="19">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="C12" s="10">
+        <v>-1.82</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1023,26 +1022,26 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="11">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11">
-        <v>-3</v>
-      </c>
-      <c r="D13" s="12">
-        <v>5</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>-1.82</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
         <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1050,26 +1049,26 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>0.5</v>
       </c>
-      <c r="C14" s="11">
-        <v>-3</v>
-      </c>
-      <c r="D14" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="C14" s="10">
+        <v>-1.82</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="E14" s="17">
         <v>-1</v>
       </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1077,26 +1076,26 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="16">
-        <v>0</v>
-      </c>
-      <c r="C15" s="16">
-        <v>-3.5</v>
-      </c>
-      <c r="D15" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="E15" s="20">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
+      <c r="B15" s="15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
         <v>-1</v>
       </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
-        <v>20</v>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1104,26 +1103,26 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="11">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="C16" s="10">
         <v>0.5</v>
       </c>
-      <c r="D16" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="E16" s="19">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="D16" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1131,26 +1130,26 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="11">
-        <v>3</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="14">
-        <v>5</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14">
+      <c r="B17" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
         <v>1</v>
       </c>
       <c r="H17" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1158,26 +1157,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="11">
-        <v>3</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="C18" s="10">
         <v>-0.5</v>
       </c>
-      <c r="D18" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="D18" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
         <v>-1</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1185,26 +1184,26 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-      <c r="D19" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="E19" s="20">
-        <v>1</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>20</v>
+      <c r="B19" s="15">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1212,26 +1211,26 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>-0.5</v>
       </c>
-      <c r="C20" s="11">
-        <v>3</v>
-      </c>
-      <c r="D20" s="12">
-        <v>-4.5</v>
-      </c>
-      <c r="E20" s="19">
+      <c r="C20" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="D20" s="11">
+        <v>-1.25</v>
+      </c>
+      <c r="E20" s="18">
         <v>-1</v>
       </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1239,26 +1238,26 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13">
-        <v>3</v>
-      </c>
-      <c r="D21" s="14">
-        <v>-5</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14">
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1.82</v>
+      </c>
+      <c r="D21" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
         <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1266,26 +1265,26 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>0.5</v>
       </c>
-      <c r="C22" s="13">
-        <v>3</v>
-      </c>
-      <c r="D22" s="14">
-        <v>-4.5</v>
-      </c>
-      <c r="E22" s="18">
+      <c r="C22" s="12">
+        <v>1.82</v>
+      </c>
+      <c r="D22" s="13">
+        <v>-1.25</v>
+      </c>
+      <c r="E22" s="17">
         <v>-1</v>
       </c>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14">
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1293,26 +1292,26 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-      <c r="C23" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="D23" s="17">
-        <v>-4.5</v>
-      </c>
-      <c r="E23" s="20">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>20</v>
+      <c r="B23" s="15">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D23" s="16">
+        <v>-1.25</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1320,26 +1319,26 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="15">
-        <v>-3</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="14">
+        <v>-1.82</v>
+      </c>
+      <c r="C24" s="10">
         <v>-0.5</v>
       </c>
-      <c r="D24" s="12">
-        <v>-4.5</v>
-      </c>
-      <c r="E24" s="19">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
+      <c r="D24" s="11">
+        <v>-1.25</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
         <v>-1</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1347,26 +1346,26 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="13">
-        <v>-3</v>
-      </c>
-      <c r="C25" s="13">
-        <v>0</v>
-      </c>
-      <c r="D25" s="14">
-        <v>-5</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14">
+      <c r="B25" s="12">
+        <v>-1.82</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
         <v>-1</v>
       </c>
       <c r="H25" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1374,26 +1373,26 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="13">
-        <v>-3</v>
-      </c>
-      <c r="C26" s="13">
+      <c r="B26" s="12">
+        <v>-1.82</v>
+      </c>
+      <c r="C26" s="12">
         <v>0.5</v>
       </c>
-      <c r="D26" s="14">
-        <v>-4.5</v>
-      </c>
-      <c r="E26" s="18">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="G26" s="14">
+      <c r="D26" s="13">
+        <v>-1.25</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1401,26 +1400,26 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="16">
-        <v>-3.5</v>
-      </c>
-      <c r="C27" s="16">
-        <v>0</v>
-      </c>
-      <c r="D27" s="17">
-        <v>-4.5</v>
-      </c>
-      <c r="E27" s="20">
+      <c r="B27" s="15">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <v>-1.25</v>
+      </c>
+      <c r="E27" s="19">
         <v>-1</v>
       </c>
-      <c r="F27" s="16">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>20</v>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1428,26 +1427,26 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>-0.5</v>
       </c>
-      <c r="C28" s="11">
-        <v>-3</v>
-      </c>
-      <c r="D28" s="12">
-        <v>-4.5</v>
-      </c>
-      <c r="E28" s="19">
-        <v>1</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="C28" s="10">
+        <v>-1.82</v>
+      </c>
+      <c r="D28" s="11">
+        <v>-1.25</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1455,26 +1454,26 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13">
-        <v>-3</v>
-      </c>
-      <c r="D29" s="14">
-        <v>-5</v>
-      </c>
-      <c r="E29" s="18">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14">
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+      <c r="C29" s="12">
+        <v>-1.82</v>
+      </c>
+      <c r="D29" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
         <v>-1</v>
       </c>
       <c r="H29" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1482,26 +1481,26 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>0.5</v>
       </c>
-      <c r="C30" s="13">
-        <v>-3</v>
-      </c>
-      <c r="D30" s="14">
-        <v>-4.5</v>
-      </c>
-      <c r="E30" s="18">
+      <c r="C30" s="12">
+        <v>-1.82</v>
+      </c>
+      <c r="D30" s="13">
+        <v>-1.25</v>
+      </c>
+      <c r="E30" s="17">
         <v>-1</v>
       </c>
-      <c r="F30" s="13">
-        <v>0</v>
-      </c>
-      <c r="G30" s="14">
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1509,26 +1508,26 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="16">
-        <v>0</v>
-      </c>
-      <c r="C31" s="16">
-        <v>-3.5</v>
-      </c>
-      <c r="D31" s="17">
-        <v>-4.5</v>
-      </c>
-      <c r="E31" s="20">
-        <v>0</v>
-      </c>
-      <c r="F31" s="16">
+      <c r="B31" s="15">
+        <v>0</v>
+      </c>
+      <c r="C31" s="15">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="D31" s="16">
+        <v>-1.25</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
         <v>-1</v>
       </c>
-      <c r="G31" s="17">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10">
-        <v>20</v>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1536,26 +1535,26 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="11">
-        <v>3</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B32" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="C32" s="10">
         <v>0.5</v>
       </c>
-      <c r="D32" s="12">
-        <v>-4.5</v>
-      </c>
-      <c r="E32" s="19">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
-        <v>1</v>
-      </c>
-      <c r="G32" s="12">
+      <c r="D32" s="11">
+        <v>-1.25</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11">
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1563,26 +1562,26 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="11">
-        <v>3</v>
-      </c>
-      <c r="C33" s="11">
-        <v>0</v>
-      </c>
-      <c r="D33" s="14">
-        <v>-4</v>
-      </c>
-      <c r="E33" s="18">
-        <v>0</v>
-      </c>
-      <c r="F33" s="13">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14">
+      <c r="B33" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13">
         <v>1</v>
       </c>
       <c r="H33" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1590,26 +1589,26 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="11">
-        <v>3</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="B34" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="C34" s="10">
         <v>-0.5</v>
       </c>
-      <c r="D34" s="14">
-        <v>-4.5</v>
-      </c>
-      <c r="E34" s="18">
-        <v>0</v>
-      </c>
-      <c r="F34" s="13">
+      <c r="D34" s="13">
+        <v>-1.25</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
         <v>-1</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="13">
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1617,26 +1616,26 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B35" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="C35" s="13">
-        <v>0</v>
-      </c>
-      <c r="D35" s="14">
-        <v>-4.5</v>
-      </c>
-      <c r="E35" s="18">
-        <v>1</v>
-      </c>
-      <c r="F35" s="13">
-        <v>0</v>
-      </c>
-      <c r="G35" s="14">
+      <c r="B35" s="12">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13">
+        <v>-1.25</v>
+      </c>
+      <c r="E35" s="17">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13">
         <v>0</v>
       </c>
       <c r="H35" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
